--- a/Planning en voortgang/burndown_Verkiezingsopdracht.xlsx
+++ b/Planning en voortgang/burndown_Verkiezingsopdracht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp3\htdocs\EXAMENOPDRACHT---VERKIEZING\Planning en voortgang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDEB73FA-155B-4366-B2FF-F0B37AD83DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED1A757-48B8-48EC-9298-B429B2403947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Taak</t>
   </si>
@@ -53,27 +53,6 @@
     <t>Nog doen</t>
   </si>
   <si>
-    <t>wk17</t>
-  </si>
-  <si>
-    <t>wk20</t>
-  </si>
-  <si>
-    <t>wk21</t>
-  </si>
-  <si>
-    <t>wk22</t>
-  </si>
-  <si>
-    <t>wk23</t>
-  </si>
-  <si>
-    <t>wk24</t>
-  </si>
-  <si>
-    <t>wk25</t>
-  </si>
-  <si>
     <t>US1</t>
   </si>
   <si>
@@ -83,33 +62,6 @@
     <t>US3</t>
   </si>
   <si>
-    <t>US4</t>
-  </si>
-  <si>
-    <t>US5</t>
-  </si>
-  <si>
-    <t>US6</t>
-  </si>
-  <si>
-    <t>US7</t>
-  </si>
-  <si>
-    <t>US8</t>
-  </si>
-  <si>
-    <t>US9</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
     <t>homepage-design</t>
   </si>
   <si>
@@ -119,40 +71,115 @@
     <t>homepage-review</t>
   </si>
   <si>
-    <t>inlog-pagina</t>
-  </si>
-  <si>
-    <t>Registratie van alle verkiezing soorten</t>
-  </si>
-  <si>
-    <t>Registratie van politieke partijen per verkiezing soort</t>
-  </si>
-  <si>
-    <t>Registratie van verkiesbare</t>
-  </si>
-  <si>
-    <t>Registratie van stemgerichten</t>
-  </si>
-  <si>
-    <t>Stem Pagina</t>
-  </si>
-  <si>
-    <t>Aanmaken verkiezing met data</t>
-  </si>
-  <si>
-    <t>Volgorde Politieke Partij</t>
-  </si>
-  <si>
-    <t>Koppeling verkiesbare politieke partij</t>
-  </si>
-  <si>
-    <t>Goedkeuren politieke partijen</t>
-  </si>
-  <si>
-    <t>Registratie stemgerichden</t>
-  </si>
-  <si>
-    <t>StemPercentage regio's</t>
+    <t>4-oct</t>
+  </si>
+  <si>
+    <t>11-oct</t>
+  </si>
+  <si>
+    <t>18-0ct</t>
+  </si>
+  <si>
+    <t>22-oct</t>
+  </si>
+  <si>
+    <t>Design - Home Page</t>
+  </si>
+  <si>
+    <t>Coding - Inlog Pagina</t>
+  </si>
+  <si>
+    <t>Review - Inlog Pagina</t>
+  </si>
+  <si>
+    <t>Design - Stempercentage Regio's</t>
+  </si>
+  <si>
+    <t>Coding - Volgorde Politieke Partij</t>
+  </si>
+  <si>
+    <t>Review - Volgorde Politieke Partij</t>
+  </si>
+  <si>
+    <t>Design - Volgorde Politieke Partij</t>
+  </si>
+  <si>
+    <t>Design - Stem Pagina</t>
+  </si>
+  <si>
+    <t>Coding - Stem Pagina</t>
+  </si>
+  <si>
+    <t>Review - Stem Pagina</t>
+  </si>
+  <si>
+    <t>Design - Koppeling verkiesbare politieke partij</t>
+  </si>
+  <si>
+    <t>Coding - Koppeling verkiesbare politieke partij</t>
+  </si>
+  <si>
+    <t>Review - Koppeling verkiesbare politieke partij</t>
+  </si>
+  <si>
+    <t>Design - Goedkeuren politieke partij ministirie</t>
+  </si>
+  <si>
+    <t>Coding - Goedkeuren politieke partij ministirie</t>
+  </si>
+  <si>
+    <t>Review - Goedkeuren politieke partij ministirie</t>
+  </si>
+  <si>
+    <t>Design - Registratie van stemgerechtigden</t>
+  </si>
+  <si>
+    <t>Coding - Registratie van stemgerechtigden</t>
+  </si>
+  <si>
+    <t>Review - Registratie van stemgerechtigden</t>
+  </si>
+  <si>
+    <t>Design - Registratie van verkiesbare</t>
+  </si>
+  <si>
+    <t>Coding - Registratie van verkiesbare</t>
+  </si>
+  <si>
+    <t>Design - Registratie van politieke partijen per verkiezing soort</t>
+  </si>
+  <si>
+    <t>Coding - Registratie van politieke partijen per verkiezing soort</t>
+  </si>
+  <si>
+    <t>Review - Registratie van politieke partijen per verkiezing soort</t>
+  </si>
+  <si>
+    <t>Design - Registratie van alle verkiezing soorten</t>
+  </si>
+  <si>
+    <t>Coding - Registratie van alle verkiezing soorten</t>
+  </si>
+  <si>
+    <t>Review - Registratie van alle verkiezing soorten</t>
+  </si>
+  <si>
+    <t>Design - Aanmaken verkiezing data</t>
+  </si>
+  <si>
+    <t>Coding - Aanmaken verkiezing data</t>
+  </si>
+  <si>
+    <t>Review - Aanmaken verkiezing data</t>
+  </si>
+  <si>
+    <t>Coding - Stempercentage Regio's</t>
+  </si>
+  <si>
+    <t>Review - Stempercentage Regio's</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -196,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -353,10 +380,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -369,34 +396,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -427,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,28 +476,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -611,7 +609,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$31</c:f>
+              <c:f>BurndownChart!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -636,31 +634,22 @@
             <c:multiLvlStrRef>
               <c:f>BurndownChart!$B$1:$I$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>geschat</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>wk17</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>wk20</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>wk21</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>wk22</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>wk23</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>wk24</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>wk25</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -668,25 +657,16 @@
                     <c:v>Punten</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>26-apr</c:v>
+                    <c:v>4-oct</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15-mei</c:v>
+                    <c:v>11-oct</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22-mei</c:v>
+                    <c:v>18-0ct</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29-mei</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>12-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>19-jun</c:v>
+                    <c:v>22-oct</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -694,33 +674,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$31:$I$31</c:f>
+              <c:f>BurndownChart!$B$43:$I$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +717,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$32</c:f>
+              <c:f>BurndownChart!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -762,31 +742,22 @@
             <c:multiLvlStrRef>
               <c:f>BurndownChart!$B$1:$I$2</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>geschat</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>wk17</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>wk20</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>wk21</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>wk22</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>wk23</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>wk24</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>wk25</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -794,25 +765,16 @@
                     <c:v>Punten</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>26-apr</c:v>
+                    <c:v>4-oct</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>15-mei</c:v>
+                    <c:v>11-oct</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22-mei</c:v>
+                    <c:v>18-0ct</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29-mei</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>12-jun</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>19-jun</c:v>
+                    <c:v>22-oct</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -820,33 +782,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$32:$I$32</c:f>
+              <c:f>BurndownChart!$B$44:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>23</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.714285714285715</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.428571428571431</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.142857142857146</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8571428571428612</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5714285714285756</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.28571428571429</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4408920985006262E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,7 +1614,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>44449</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1998,15 +1960,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2016,27 +1978,21 @@
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17">
-        <v>45408</v>
-      </c>
-      <c r="D1" s="17">
-        <v>45427</v>
-      </c>
-      <c r="E1" s="17">
-        <v>45434</v>
-      </c>
-      <c r="F1" s="17">
-        <v>45441</v>
-      </c>
-      <c r="G1" s="17">
-        <v>45448</v>
-      </c>
-      <c r="H1" s="17">
-        <v>45455</v>
-      </c>
-      <c r="I1" s="18">
-        <v>45462</v>
-      </c>
+      <c r="C1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -2045,31 +2001,25 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -2084,10 +2034,14 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2097,10 +2051,14 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2110,10 +2068,14 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2123,12 +2085,14 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -2137,11 +2101,15 @@
       <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2150,11 +2118,15 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2163,11 +2135,15 @@
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2177,13 +2153,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2191,12 +2169,16 @@
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2204,14 +2186,16 @@
       <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>15</v>
+      <c r="A13" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2219,12 +2203,16 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1"/>
+      <c r="A14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2232,27 +2220,33 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>16</v>
+      <c r="A15" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2260,14 +2254,16 @@
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>17</v>
+      <c r="A17" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2275,12 +2271,16 @@
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="A18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2288,27 +2288,33 @@
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
-        <v>18</v>
+      <c r="A19" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2316,244 +2322,493 @@
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>19</v>
+      <c r="A21" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="27">
+      <c r="A23" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="27"/>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="28"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="26">
+      <c r="A25" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="24">
         <v>2</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="25"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="5"/>
+      <c r="A26" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="25"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="30">
+        <v>33</v>
+      </c>
+      <c r="B27" s="26">
         <v>2</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="32"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
+        <v>34</v>
+      </c>
+      <c r="B28" s="26">
+        <v>2</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="30">
+        <v>35</v>
+      </c>
+      <c r="B29" s="26">
         <v>2</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="32"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="29" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="26">
+        <v>2</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="26">
+        <v>2</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="26">
+        <v>3</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="32"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="B33" s="26">
+        <v>1</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="26">
+        <v>2</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="26">
+        <v>3</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="26">
+        <v>1</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="26">
+        <v>2</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="26">
+        <v>3</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="26">
+        <v>2</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="26">
+        <v>3</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="26">
+        <v>1</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="29"/>
+      <c r="B42" s="26">
+        <v>1</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B43" s="8">
         <f>SUM(B3:B26)</f>
-        <v>23</v>
-      </c>
-      <c r="C31" s="9">
-        <f t="shared" ref="C31:I31" si="0">B$31-SUM(C3:C26)</f>
-        <v>23</v>
-      </c>
-      <c r="D31" s="9">
+        <v>56</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" ref="C43:I43" si="0">B$43-SUM(C3:C26)</f>
+        <v>56</v>
+      </c>
+      <c r="D43" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="E31" s="9">
+        <v>56</v>
+      </c>
+      <c r="E43" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F31" s="9">
+        <v>56</v>
+      </c>
+      <c r="F43" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G31" s="9">
+        <v>56</v>
+      </c>
+      <c r="G43" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="H31" s="9">
+        <v>56</v>
+      </c>
+      <c r="H43" s="9">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="I31" s="10">
+        <v>56</v>
+      </c>
+      <c r="I43" s="10">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="12">
-        <f>B31</f>
-        <v>23</v>
-      </c>
-      <c r="C32" s="13">
-        <f t="shared" ref="C32:I32" si="1">B$32-$B$32/COUNT($C$1:$I$1)</f>
-        <v>19.714285714285715</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="B44" s="12">
+        <f>B43</f>
+        <v>56</v>
+      </c>
+      <c r="C44" s="13" t="e">
+        <f t="shared" ref="C44:I44" si="1">B$44-$B$44/COUNT($C$1:$I$1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="13" t="e">
         <f t="shared" si="1"/>
-        <v>16.428571428571431</v>
-      </c>
-      <c r="E32" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="13" t="e">
         <f t="shared" si="1"/>
-        <v>13.142857142857146</v>
-      </c>
-      <c r="F32" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="13" t="e">
         <f t="shared" si="1"/>
-        <v>9.8571428571428612</v>
-      </c>
-      <c r="G32" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="13" t="e">
         <f t="shared" si="1"/>
-        <v>6.5714285714285756</v>
-      </c>
-      <c r="H32" s="13">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="13" t="e">
         <f t="shared" si="1"/>
-        <v>3.28571428571429</v>
-      </c>
-      <c r="I32" s="14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="14" t="e">
         <f t="shared" si="1"/>
-        <v>4.4408920985006262E-15</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/milestone/5" xr:uid="{053387AC-E4E4-4CDC-AEE1-4EA24DBC2E21}"/>
-    <hyperlink ref="A20" r:id="rId2" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/milestone/11" xr:uid="{944A1AAB-A8F3-42DE-AEEE-6634EBBCF2DB}"/>
-    <hyperlink ref="A22" r:id="rId3" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/milestone/8" xr:uid="{A8AF43B3-C2FD-47AB-94F6-A5AB12FBA136}"/>
-    <hyperlink ref="A24" r:id="rId4" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/milestone/9" xr:uid="{1B15F540-B198-4C73-B710-9438E4D0C29B}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/2" xr:uid="{B9F1B892-8508-4D71-828F-91227B55AEC1}"/>
+    <hyperlink ref="A9" r:id="rId2" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/6" xr:uid="{5A90BA1C-F2CB-4810-B2B7-A1CE1D379B0A}"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/7" xr:uid="{43A1C437-67A0-42A5-AFB0-2E1A0F3CBCE6}"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/11" xr:uid="{7926A5EA-1901-4EFB-AD26-CE326403FADA}"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/17" xr:uid="{D42DC0AA-9DB4-41DE-9C7E-7CBA09CF2B1E}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/18" xr:uid="{E54BC07D-A892-427A-B857-8AA0CA885AB2}"/>
+    <hyperlink ref="A15" r:id="rId7" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/19" xr:uid="{C33EE167-F5CD-4991-BADA-6CC400D5AFC2}"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/20" xr:uid="{79752640-E243-4545-89ED-6722894B07B6}"/>
+    <hyperlink ref="A17" r:id="rId9" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/21" xr:uid="{356D0458-323F-4595-AF4E-3D3842EDB127}"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/22" xr:uid="{1F3D92BB-C206-4592-96F8-204ABA4E7E28}"/>
+    <hyperlink ref="A19" r:id="rId11" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/23" xr:uid="{AEB72225-2CD0-4BD8-B37C-05ACDDE7AFB9}"/>
+    <hyperlink ref="A20" r:id="rId12" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/24" xr:uid="{23F89338-68A8-494A-B4D1-FC707F44CE9F}"/>
+    <hyperlink ref="A21" r:id="rId13" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/25" xr:uid="{96E5D202-7112-4852-A890-467B35269E48}"/>
+    <hyperlink ref="A22" r:id="rId14" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/26" xr:uid="{CEB36ED2-36F8-455D-8FE9-10C0B6CEDE1A}"/>
+    <hyperlink ref="A23" r:id="rId15" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/27" xr:uid="{0399D9CE-3366-4E55-9E04-573DBDC28875}"/>
+    <hyperlink ref="A24" r:id="rId16" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/28" xr:uid="{7FF2AED2-B88E-4DF5-8276-4D868B4CEED8}"/>
+    <hyperlink ref="A25" r:id="rId17" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/29" xr:uid="{A6E0AA3D-D2C8-476F-BDF4-CF5E521925A7}"/>
+    <hyperlink ref="A26" r:id="rId18" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/30" xr:uid="{C2BE5D42-9FB0-4B1A-877A-B89B24339329}"/>
+    <hyperlink ref="A27" r:id="rId19" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/31" xr:uid="{BB068EB2-1CD3-408C-8EC9-3805FF7C3DB4}"/>
+    <hyperlink ref="A28" r:id="rId20" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/32" xr:uid="{C803133A-2558-4AFF-97BD-BCF8881CD6FD}"/>
+    <hyperlink ref="A29" r:id="rId21" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/33" xr:uid="{8DC86A3B-17B5-499D-9342-BA31AF55DF76}"/>
+    <hyperlink ref="A31" r:id="rId22" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/35" xr:uid="{0832FF37-59CD-4F53-A650-93D1CC445A4B}"/>
+    <hyperlink ref="A32" r:id="rId23" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/36" xr:uid="{4D60EC2F-E9BA-4894-A97E-E3BD5E357E0A}"/>
+    <hyperlink ref="A33" r:id="rId24" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/37" xr:uid="{6A58502A-D427-4346-A061-7CF71463E176}"/>
+    <hyperlink ref="A34" r:id="rId25" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/38" xr:uid="{76E11008-1669-41A9-ABE6-73B55B410CAB}"/>
+    <hyperlink ref="A35" r:id="rId26" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/39" xr:uid="{C9FE44DF-3130-450C-9A67-B00A2AF0C399}"/>
+    <hyperlink ref="A36" r:id="rId27" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/40" xr:uid="{8AEE9759-3825-4AAB-9061-F97FA20D1B46}"/>
+    <hyperlink ref="A37" r:id="rId28" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/44" xr:uid="{33B30511-ACB2-4B0E-BD35-3DDD132D855F}"/>
+    <hyperlink ref="A38" r:id="rId29" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/45" xr:uid="{63A1B24B-45C0-4AE0-8691-A59DE95D4418}"/>
+    <hyperlink ref="A39" r:id="rId30" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/46" xr:uid="{5F387E4E-F818-4C84-BBC8-130D11D89F0F}"/>
+    <hyperlink ref="A40" r:id="rId31" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/47" xr:uid="{92755B88-9BA3-47B6-9590-CBA36B65455C}"/>
+    <hyperlink ref="A41" r:id="rId32" display="https://github.com/lucastanis/EXAMENOPDRACHT---VERKIEZING/issues/48" xr:uid="{29343976-7A8F-4641-B82E-5998FD769764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2802,15 +3057,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2827,4 +3083,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>